--- a/HIB_within_host_model_output_+No_shift+conserv_better_I+No_TMI.xlsx
+++ b/HIB_within_host_model_output_+No_shift+conserv_better_I+No_TMI.xlsx
@@ -3,47 +3,47 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="1" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="7">
   <si>
-    <t xml:space="preserve">time</t>
+    <t>time</t>
   </si>
   <si>
-    <t xml:space="preserve">temp</t>
+    <t>temp</t>
   </si>
   <si>
-    <t xml:space="preserve">variable</t>
+    <t>variable</t>
   </si>
   <si>
-    <t xml:space="preserve">value</t>
+    <t>value</t>
   </si>
   <si>
-    <t xml:space="preserve">H</t>
+    <t>H</t>
   </si>
   <si>
-    <t xml:space="preserve">I</t>
+    <t>I</t>
   </si>
   <si>
-    <t xml:space="preserve">B</t>
+    <t>B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -54,7 +54,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -72,297 +72,16 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -380,142 +99,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.000684931506849315</v>
+        <v>6.849315068493151E-4</v>
       </c>
       <c r="B3" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.989636750480361</v>
+        <v>0.9896367504803615</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.00136986301369863</v>
+        <v>0.0013698630136986301</v>
       </c>
       <c r="B4" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.927033561596328</v>
+        <v>0.9270335615963284</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.00205479452054795</v>
+        <v>0.0020547945205479454</v>
       </c>
       <c r="B5" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.705991013584274</v>
+        <v>0.7059910135842743</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.00273972602739726</v>
+        <v>0.0027397260273972603</v>
       </c>
       <c r="B6" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.419801453096103</v>
+        <v>0.41980145309610295</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.00342465753424658</v>
+        <v>0.003424657534246575</v>
       </c>
       <c r="B7" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.241388448563394</v>
+        <v>0.24138844856339423</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.00410958904109589</v>
+        <v>0.004109589041095891</v>
       </c>
       <c r="B8" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.163025833486868</v>
+        <v>0.16302583348686822</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.00479452054794521</v>
+        <v>0.004794520547945206</v>
       </c>
       <c r="B9" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>0.146059644505549</v>
+        <v>0.14605964450554892</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.00547945205479452</v>
+        <v>0.005479452054794521</v>
       </c>
       <c r="B10" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.142963731537824</v>
+        <v>0.14296373153782407</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.00616438356164384</v>
+        <v>0.0061643835616438354</v>
       </c>
       <c r="B11" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>0.142176710837448</v>
+        <v>0.14217671083744798</v>
       </c>
     </row>
     <row r="12">
@@ -523,27 +242,27 @@
         <v>0.00684931506849315</v>
       </c>
       <c r="B12" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>0.141935636520816</v>
+        <v>0.14193563652081612</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.00753424657534247</v>
+        <v>0.007534246575342466</v>
       </c>
       <c r="B13" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>0.141833953905631</v>
+        <v>0.1418339539056313</v>
       </c>
     </row>
     <row r="14">
@@ -551,77 +270,77 @@
         <v>0.00821917808219178</v>
       </c>
       <c r="B14" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>0.141768560854006</v>
+        <v>0.14176856085400558</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B15" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.000684931506849315</v>
+        <v>6.849315068493151E-4</v>
       </c>
       <c r="B16" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>0.986468156922542</v>
+        <v>0.9864681569225421</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.00136986301369863</v>
+        <v>0.0013698630136986301</v>
       </c>
       <c r="B17" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>0.87943679284754</v>
+        <v>0.8794367928475397</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.00205479452054795</v>
+        <v>0.0020547945205479454</v>
       </c>
       <c r="B18" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>0.580223871289187</v>
+        <v>0.5802238712891866</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.00273972602739726</v>
+        <v>0.0027397260273972603</v>
       </c>
       <c r="B19" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -632,66 +351,66 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.00342465753424658</v>
+        <v>0.003424657534246575</v>
       </c>
       <c r="B20" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>0.31706655146682</v>
+        <v>0.3170665514668195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.00410958904109589</v>
+        <v>0.004109589041095891</v>
       </c>
       <c r="B21" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>0.314217591806207</v>
+        <v>0.3142175918062074</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.00479452054794521</v>
+        <v>0.004794520547945206</v>
       </c>
       <c r="B22" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>0.313768535344754</v>
+        <v>0.3137685353447539</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.00547945205479452</v>
+        <v>0.005479452054794521</v>
       </c>
       <c r="B23" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>0.313519084808154</v>
+        <v>0.3135190848081541</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.00616438356164384</v>
+        <v>0.0061643835616438354</v>
       </c>
       <c r="B24" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -705,27 +424,27 @@
         <v>0.00684931506849315</v>
       </c>
       <c r="B25" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>0.313056336953112</v>
+        <v>0.3130563369531121</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.00753424657534247</v>
+        <v>0.007534246575342466</v>
       </c>
       <c r="B26" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>0.312826110970005</v>
+        <v>0.31282611097000484</v>
       </c>
     </row>
     <row r="27">
@@ -733,77 +452,77 @@
         <v>0.00821917808219178</v>
       </c>
       <c r="B27" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>0.31259608987267</v>
+        <v>0.31259608987267035</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B28" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.000684931506849315</v>
+        <v>6.849315068493151E-4</v>
       </c>
       <c r="B29" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>0.982099270701854</v>
+        <v>0.9820992707018544</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.00136986301369863</v>
+        <v>0.0013698630136986301</v>
       </c>
       <c r="B30" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>0.81494962673943</v>
+        <v>0.8149496267394296</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.00205479452054795</v>
+        <v>0.0020547945205479454</v>
       </c>
       <c r="B31" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>0.539506828773628</v>
+        <v>0.5395068287736283</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.00273972602739726</v>
+        <v>0.0027397260273972603</v>
       </c>
       <c r="B32" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -814,72 +533,72 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.00342465753424658</v>
+        <v>0.003424657534246575</v>
       </c>
       <c r="B33" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>0.515474894266374</v>
+        <v>0.5154748942663739</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.00410958904109589</v>
+        <v>0.004109589041095891</v>
       </c>
       <c r="B34" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>0.514828128272301</v>
+        <v>0.5148281282723007</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.00479452054794521</v>
+        <v>0.004794520547945206</v>
       </c>
       <c r="B35" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>0.514186219351005</v>
+        <v>0.5141862193510045</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.00547945205479452</v>
+        <v>0.005479452054794521</v>
       </c>
       <c r="B36" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>0.513545280451534</v>
+        <v>0.5135452804515341</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.00616438356164384</v>
+        <v>0.0061643835616438354</v>
       </c>
       <c r="B37" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>0.512905254296154</v>
+        <v>0.5129052542961542</v>
       </c>
     </row>
     <row r="38">
@@ -887,27 +606,27 @@
         <v>0.00684931506849315</v>
       </c>
       <c r="B38" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>0.512266138506596</v>
+        <v>0.5122661385065959</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.00753424657534247</v>
+        <v>0.007534246575342466</v>
       </c>
       <c r="B39" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>0.511627931350895</v>
+        <v>0.5116279313508947</v>
       </c>
     </row>
     <row r="40">
@@ -915,77 +634,77 @@
         <v>0.00821917808219178</v>
       </c>
       <c r="B40" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>0.510990631262331</v>
+        <v>0.5109906312623306</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B41" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.000684931506849315</v>
+        <v>6.849315068493151E-4</v>
       </c>
       <c r="B42" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>0.976389013386355</v>
+        <v>0.9763890133863551</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.00136986301369863</v>
+        <v>0.0013698630136986301</v>
       </c>
       <c r="B43" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>0.756577312520715</v>
+        <v>0.7565773125207149</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.00205479452054795</v>
+        <v>0.0020547945205479454</v>
       </c>
       <c r="B44" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>0.693150271859145</v>
+        <v>0.6931502718591455</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.00273972602739726</v>
+        <v>0.0027397260273972603</v>
       </c>
       <c r="B45" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
@@ -996,72 +715,72 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.00342465753424658</v>
+        <v>0.003424657534246575</v>
       </c>
       <c r="B46" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>0.690450039752822</v>
+        <v>0.6904500397528216</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.00410958904109589</v>
+        <v>0.004109589041095891</v>
       </c>
       <c r="B47" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>0.689140787436478</v>
+        <v>0.6891407874364776</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.00479452054794521</v>
+        <v>0.004794520547945206</v>
       </c>
       <c r="B48" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C48" t="s">
         <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>0.687834326774868</v>
+        <v>0.6878343267748679</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.00547945205479452</v>
+        <v>0.005479452054794521</v>
       </c>
       <c r="B49" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>0.686530650355598</v>
+        <v>0.6865306503555977</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.00616438356164384</v>
+        <v>0.0061643835616438354</v>
       </c>
       <c r="B50" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>0.685229750097392</v>
+        <v>0.6852297500973921</v>
       </c>
     </row>
     <row r="51">
@@ -1069,27 +788,27 @@
         <v>0.00684931506849315</v>
       </c>
       <c r="B51" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>0.683931619777541</v>
+        <v>0.6839316197775408</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.00753424657534247</v>
+        <v>0.007534246575342466</v>
       </c>
       <c r="B52" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C52" t="s">
         <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>0.682636252639949</v>
+        <v>0.6826362526399486</v>
       </c>
     </row>
     <row r="53">
@@ -1097,153 +816,153 @@
         <v>0.00821917808219178</v>
       </c>
       <c r="B53" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C53" t="s">
         <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>0.681343641752963</v>
+        <v>0.6813436417529626</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B54" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C54" t="s">
         <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.000684931506849315</v>
+        <v>6.849315068493151E-4</v>
       </c>
       <c r="B55" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>0.969619451507722</v>
+        <v>0.9696194515077223</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.00136986301369863</v>
+        <v>0.0013698630136986301</v>
       </c>
       <c r="B56" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>0.794255838220556</v>
+        <v>0.7942558382205561</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.00205479452054795</v>
+        <v>0.0020547945205479454</v>
       </c>
       <c r="B57" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C57" t="s">
         <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>0.79091876391805</v>
+        <v>0.7909187639180499</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.00273972602739726</v>
+        <v>0.0027397260273972603</v>
       </c>
       <c r="B58" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C58" t="s">
         <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>0.78894499875141</v>
+        <v>0.7889449987514104</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.00342465753424658</v>
+        <v>0.003424657534246575</v>
       </c>
       <c r="B59" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C59" t="s">
         <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>0.786976822949396</v>
+        <v>0.7869768229493956</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.00410958904109589</v>
+        <v>0.004109589041095891</v>
       </c>
       <c r="B60" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>0.785014086384892</v>
+        <v>0.7850140863848918</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.00479452054794521</v>
+        <v>0.004794520547945206</v>
       </c>
       <c r="B61" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C61" t="s">
         <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>0.783056768586881</v>
+        <v>0.7830567685868809</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.00547945205479452</v>
+        <v>0.005479452054794521</v>
       </c>
       <c r="B62" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C62" t="s">
         <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>0.781104853998961</v>
+        <v>0.7811048539989615</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.00616438356164384</v>
+        <v>0.0061643835616438354</v>
       </c>
       <c r="B63" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C63" t="s">
         <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>0.779158325980389</v>
+        <v>0.7791583259803891</v>
       </c>
     </row>
     <row r="64">
@@ -1251,27 +970,27 @@
         <v>0.00684931506849315</v>
       </c>
       <c r="B64" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C64" t="s">
         <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>0.777217167368809</v>
+        <v>0.7772171673688094</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.00753424657534247</v>
+        <v>0.007534246575342466</v>
       </c>
       <c r="B65" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C65" t="s">
         <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>0.775281360874098</v>
+        <v>0.7752813608740978</v>
       </c>
     </row>
     <row r="66">
@@ -1279,147 +998,147 @@
         <v>0.00821917808219178</v>
       </c>
       <c r="B66" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C66" t="s">
         <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>0.773350889210697</v>
+        <v>0.7733508892106965</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B67" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C67" t="s">
         <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.000684931506849315</v>
+        <v>6.849315068493151E-4</v>
       </c>
       <c r="B68" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C68" t="s">
         <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>0.96287517164207</v>
+        <v>0.9628751716420698</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.00136986301369863</v>
+        <v>0.0013698630136986301</v>
       </c>
       <c r="B69" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C69" t="s">
         <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>0.799509467926842</v>
+        <v>0.7995094679268424</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.00205479452054795</v>
+        <v>0.0020547945205479454</v>
       </c>
       <c r="B70" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C70" t="s">
         <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>0.797005081381399</v>
+        <v>0.7970050813813991</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.00273972602739726</v>
+        <v>0.0027397260273972603</v>
       </c>
       <c r="B71" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C71" t="s">
         <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>0.794841091968911</v>
+        <v>0.7948410919689113</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.00342465753424658</v>
+        <v>0.003424657534246575</v>
       </c>
       <c r="B72" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C72" t="s">
         <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>0.792683580807408</v>
+        <v>0.7926835808074081</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.00410958904109589</v>
+        <v>0.004109589041095891</v>
       </c>
       <c r="B73" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C73" t="s">
         <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>0.790532508558248</v>
+        <v>0.7905325085582479</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.00479452054794521</v>
+        <v>0.004794520547945206</v>
       </c>
       <c r="B74" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C74" t="s">
         <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>0.788387851603993</v>
+        <v>0.7883878516039932</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.00547945205479452</v>
+        <v>0.005479452054794521</v>
       </c>
       <c r="B75" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C75" t="s">
         <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>0.786249589932434</v>
+        <v>0.7862495899324335</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.00616438356164384</v>
+        <v>0.0061643835616438354</v>
       </c>
       <c r="B76" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C76" t="s">
         <v>4</v>
@@ -1433,7 +1152,7 @@
         <v>0.00684931506849315</v>
       </c>
       <c r="B77" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C77" t="s">
         <v>4</v>
@@ -1444,16 +1163,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.00753424657534247</v>
+        <v>0.007534246575342466</v>
       </c>
       <c r="B78" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C78" t="s">
         <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>0.779872961950184</v>
+        <v>0.7798729619501841</v>
       </c>
     </row>
     <row r="79">
@@ -1461,77 +1180,77 @@
         <v>0.00821917808219178</v>
       </c>
       <c r="B79" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C79" t="s">
         <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>0.777760065042218</v>
+        <v>0.7777600650422178</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B80" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.000684931506849315</v>
+        <v>6.849315068493151E-4</v>
       </c>
       <c r="B81" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>989.641935159581</v>
+        <v>989.6419351595808</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.00136986301369863</v>
+        <v>0.0013698630136986301</v>
       </c>
       <c r="B82" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>927.033671753443</v>
+        <v>927.0336717534432</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.00205479452054795</v>
+        <v>0.0020547945205479454</v>
       </c>
       <c r="B83" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>2766.94965143092</v>
+        <v>2766.949651430917</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.00273972602739726</v>
+        <v>0.0027397260273972603</v>
       </c>
       <c r="B84" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -1542,72 +1261,72 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.00342465753424658</v>
+        <v>0.003424657534246575</v>
       </c>
       <c r="B85" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>24077.8826508699</v>
+        <v>24077.88265086989</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.00410958904109589</v>
+        <v>0.004109589041095891</v>
       </c>
       <c r="B86" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>82050.4209730306</v>
+        <v>82050.42097303059</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.00479452054794521</v>
+        <v>0.004794520547945206</v>
       </c>
       <c r="B87" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>99715.8711744099</v>
+        <v>99715.87117440988</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.00547945205479452</v>
+        <v>0.005479452054794521</v>
       </c>
       <c r="B88" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>97639.4397701092</v>
+        <v>97639.43977010917</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.00616438356164384</v>
+        <v>0.0061643835616438354</v>
       </c>
       <c r="B89" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>97138.1232362529</v>
+        <v>97138.12323625285</v>
       </c>
     </row>
     <row r="90">
@@ -1615,27 +1334,27 @@
         <v>0.00684931506849315</v>
       </c>
       <c r="B90" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>97009.363777955</v>
+        <v>97009.36377795496</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.00753424657534247</v>
+        <v>0.007534246575342466</v>
       </c>
       <c r="B91" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>96975.7492676769</v>
+        <v>96975.74926767686</v>
       </c>
     </row>
     <row r="92">
@@ -1643,77 +1362,77 @@
         <v>0.00821917808219178</v>
       </c>
       <c r="B92" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>96966.9029738556</v>
+        <v>96966.90297385558</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B93" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.000684931506849315</v>
+        <v>6.849315068493151E-4</v>
       </c>
       <c r="B94" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>986.473066436785</v>
+        <v>986.4730664367846</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.00136986301369863</v>
+        <v>0.0013698630136986301</v>
       </c>
       <c r="B95" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>1515.04686725188</v>
+        <v>1515.0468672518823</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.00205479452054795</v>
+        <v>0.0020547945205479454</v>
       </c>
       <c r="B96" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>11393.9922029585</v>
+        <v>11393.992202958465</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.00273972602739726</v>
+        <v>0.0027397260273972603</v>
       </c>
       <c r="B97" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -1724,72 +1443,72 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.00342465753424658</v>
+        <v>0.003424657534246575</v>
       </c>
       <c r="B98" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>142995.513559368</v>
+        <v>142995.5135593679</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.00410958904109589</v>
+        <v>0.004109589041095891</v>
       </c>
       <c r="B99" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>141815.403316342</v>
+        <v>141815.40331634163</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.00479452054794521</v>
+        <v>0.004794520547945206</v>
       </c>
       <c r="B100" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>141716.93777454</v>
+        <v>141716.9377745401</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.00547945205479452</v>
+        <v>0.005479452054794521</v>
       </c>
       <c r="B101" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>141708.420300153</v>
+        <v>141708.42030015265</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.00616438356164384</v>
+        <v>0.0061643835616438354</v>
       </c>
       <c r="B102" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
       </c>
       <c r="D102" t="n">
-        <v>141707.600835399</v>
+        <v>141707.60083539918</v>
       </c>
     </row>
     <row r="103">
@@ -1797,27 +1516,27 @@
         <v>0.00684931506849315</v>
       </c>
       <c r="B103" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
       </c>
       <c r="D103" t="n">
-        <v>141707.441786834</v>
+        <v>141707.44178683445</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.00753424657534247</v>
+        <v>0.007534246575342466</v>
       </c>
       <c r="B104" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
       </c>
       <c r="D104" t="n">
-        <v>141707.339407706</v>
+        <v>141707.33940770596</v>
       </c>
     </row>
     <row r="105">
@@ -1825,35 +1544,35 @@
         <v>0.00821917808219178</v>
       </c>
       <c r="B105" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
       </c>
       <c r="D105" t="n">
-        <v>141707.241891469</v>
+        <v>141707.24189146937</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B106" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
       </c>
       <c r="D106" t="n">
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.000684931506849315</v>
+        <v>6.849315068493151E-4</v>
       </c>
       <c r="B107" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -1864,108 +1583,108 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.00136986301369863</v>
+        <v>0.0013698630136986301</v>
       </c>
       <c r="B108" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
       </c>
       <c r="D108" t="n">
-        <v>5650.45444878441</v>
+        <v>5650.454448784409</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.00205479452054795</v>
+        <v>0.0020547945205479454</v>
       </c>
       <c r="B109" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
       </c>
       <c r="D109" t="n">
-        <v>187134.89064184</v>
+        <v>187134.89064184012</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.00273972602739726</v>
+        <v>0.0027397260273972603</v>
       </c>
       <c r="B110" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
       </c>
       <c r="D110" t="n">
-        <v>206474.478533343</v>
+        <v>206474.4785333433</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.00342465753424658</v>
+        <v>0.003424657534246575</v>
       </c>
       <c r="B111" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
       </c>
       <c r="D111" t="n">
-        <v>206362.621479151</v>
+        <v>206362.6214791512</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.00410958904109589</v>
+        <v>0.004109589041095891</v>
       </c>
       <c r="B112" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
       </c>
       <c r="D112" t="n">
-        <v>206360.879705351</v>
+        <v>206360.87970535082</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.00479452054794521</v>
+        <v>0.004794520547945206</v>
       </c>
       <c r="B113" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
       </c>
       <c r="D113" t="n">
-        <v>206360.715392461</v>
+        <v>206360.71539246102</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.00547945205479452</v>
+        <v>0.005479452054794521</v>
       </c>
       <c r="B114" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
       </c>
       <c r="D114" t="n">
-        <v>206360.573719874</v>
+        <v>206360.57371987376</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.00616438356164384</v>
+        <v>0.0061643835616438354</v>
       </c>
       <c r="B115" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -1979,27 +1698,27 @@
         <v>0.00684931506849315</v>
       </c>
       <c r="B116" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
       </c>
       <c r="D116" t="n">
-        <v>206360.291029551</v>
+        <v>206360.29102955063</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.00753424657534247</v>
+        <v>0.007534246575342466</v>
       </c>
       <c r="B117" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
       </c>
       <c r="D117" t="n">
-        <v>206360.149686933</v>
+        <v>206360.14968693315</v>
       </c>
     </row>
     <row r="118">
@@ -2007,153 +1726,153 @@
         <v>0.00821917808219178</v>
       </c>
       <c r="B118" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
       </c>
       <c r="D118" t="n">
-        <v>206360.008344415</v>
+        <v>206360.0083444146</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B119" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
       </c>
       <c r="D119" t="n">
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.000684931506849315</v>
+        <v>6.849315068493151E-4</v>
       </c>
       <c r="B120" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
       </c>
       <c r="D120" t="n">
-        <v>976.393124561144</v>
+        <v>976.3931245611436</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.00136986301369863</v>
+        <v>0.0013698630136986301</v>
       </c>
       <c r="B121" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
       </c>
       <c r="D121" t="n">
-        <v>76463.4842425233</v>
+        <v>76463.48424252334</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.00205479452054795</v>
+        <v>0.0020547945205479454</v>
       </c>
       <c r="B122" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
       </c>
       <c r="D122" t="n">
-        <v>292604.112445464</v>
+        <v>292604.1124454641</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.00273972602739726</v>
+        <v>0.0027397260273972603</v>
       </c>
       <c r="B123" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
       </c>
       <c r="D123" t="n">
-        <v>292573.004621477</v>
+        <v>292573.00462147663</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.00342465753424658</v>
+        <v>0.003424657534246575</v>
       </c>
       <c r="B124" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
       </c>
       <c r="D124" t="n">
-        <v>292572.769113632</v>
+        <v>292572.76911363227</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.00410958904109589</v>
+        <v>0.004109589041095891</v>
       </c>
       <c r="B125" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
       </c>
       <c r="D125" t="n">
-        <v>292572.56868148</v>
+        <v>292572.5686814799</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.00479452054794521</v>
+        <v>0.004794520547945206</v>
       </c>
       <c r="B126" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
       </c>
       <c r="D126" t="n">
-        <v>292572.368289334</v>
+        <v>292572.3682893336</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.00547945205479452</v>
+        <v>0.005479452054794521</v>
       </c>
       <c r="B127" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
       </c>
       <c r="D127" t="n">
-        <v>292572.167897371</v>
+        <v>292572.16789737105</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.00616438356164384</v>
+        <v>0.0061643835616438354</v>
       </c>
       <c r="B128" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
       </c>
       <c r="D128" t="n">
-        <v>292571.967505545</v>
+        <v>292571.9675055454</v>
       </c>
     </row>
     <row r="129">
@@ -2161,27 +1880,27 @@
         <v>0.00684931506849315</v>
       </c>
       <c r="B129" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
       </c>
       <c r="D129" t="n">
-        <v>292571.767113856</v>
+        <v>292571.7671138555</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.00753424657534247</v>
+        <v>0.007534246575342466</v>
       </c>
       <c r="B130" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
       </c>
       <c r="D130" t="n">
-        <v>292571.566722303</v>
+        <v>292571.56672230276</v>
       </c>
     </row>
     <row r="131">
@@ -2189,153 +1908,153 @@
         <v>0.00821917808219178</v>
       </c>
       <c r="B131" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
       </c>
       <c r="D131" t="n">
-        <v>292571.366330887</v>
+        <v>292571.3663308873</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B132" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
       </c>
       <c r="D132" t="n">
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.000684931506849315</v>
+        <v>6.849315068493151E-4</v>
       </c>
       <c r="B133" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
       </c>
       <c r="D133" t="n">
-        <v>969.623064149636</v>
+        <v>969.6230641496362</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.00136986301369863</v>
+        <v>0.0013698630136986301</v>
       </c>
       <c r="B134" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
       </c>
       <c r="D134" t="n">
-        <v>375875.422649542</v>
+        <v>375875.4226495416</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.00205479452054795</v>
+        <v>0.0020547945205479454</v>
       </c>
       <c r="B135" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
       </c>
       <c r="D135" t="n">
-        <v>375232.716185932</v>
+        <v>375232.7161859316</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.00273972602739726</v>
+        <v>0.0027397260273972603</v>
       </c>
       <c r="B136" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
       </c>
       <c r="D136" t="n">
-        <v>375232.396634147</v>
+        <v>375232.3966341466</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.00342465753424658</v>
+        <v>0.003424657534246575</v>
       </c>
       <c r="B137" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
       </c>
       <c r="D137" t="n">
-        <v>375232.139619615</v>
+        <v>375232.1396196153</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.00410958904109589</v>
+        <v>0.004109589041095891</v>
       </c>
       <c r="B138" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
       </c>
       <c r="D138" t="n">
-        <v>375231.882611389</v>
+        <v>375231.8826113886</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.00479452054794521</v>
+        <v>0.004794520547945206</v>
       </c>
       <c r="B139" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
       </c>
       <c r="D139" t="n">
-        <v>375231.625603339</v>
+        <v>375231.6256033389</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.00547945205479452</v>
+        <v>0.005479452054794521</v>
       </c>
       <c r="B140" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
       </c>
       <c r="D140" t="n">
-        <v>375231.368595464</v>
+        <v>375231.3685954642</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.00616438356164384</v>
+        <v>0.0061643835616438354</v>
       </c>
       <c r="B141" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
       </c>
       <c r="D141" t="n">
-        <v>375231.111587765</v>
+        <v>375231.11158776534</v>
       </c>
     </row>
     <row r="142">
@@ -2343,21 +2062,21 @@
         <v>0.00684931506849315</v>
       </c>
       <c r="B142" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
       </c>
       <c r="D142" t="n">
-        <v>375230.854580243</v>
+        <v>375230.85458024265</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.00753424657534247</v>
+        <v>0.007534246575342466</v>
       </c>
       <c r="B143" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -2371,35 +2090,35 @@
         <v>0.00821917808219178</v>
       </c>
       <c r="B144" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
       </c>
       <c r="D144" t="n">
-        <v>375230.340565725</v>
+        <v>375230.3405657254</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B145" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
       </c>
       <c r="D145" t="n">
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.000684931506849315</v>
+        <v>6.849315068493151E-4</v>
       </c>
       <c r="B146" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -2410,66 +2129,66 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.00136986301369863</v>
+        <v>0.0013698630136986301</v>
       </c>
       <c r="B147" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
       </c>
       <c r="D147" t="n">
-        <v>407272.859316924</v>
+        <v>407272.8593169242</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.00205479452054795</v>
+        <v>0.0020547945205479454</v>
       </c>
       <c r="B148" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
       </c>
       <c r="D148" t="n">
-        <v>407102.529477218</v>
+        <v>407102.52947721764</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.00273972602739726</v>
+        <v>0.0027397260273972603</v>
       </c>
       <c r="B149" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
       </c>
       <c r="D149" t="n">
-        <v>407102.243054274</v>
+        <v>407102.24305427447</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.00342465753424658</v>
+        <v>0.003424657534246575</v>
       </c>
       <c r="B150" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
       </c>
       <c r="D150" t="n">
-        <v>407101.964216878</v>
+        <v>407101.9642168782</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.00410958904109589</v>
+        <v>0.004109589041095891</v>
       </c>
       <c r="B151" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -2480,44 +2199,44 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.00479452054794521</v>
+        <v>0.004794520547945206</v>
       </c>
       <c r="B152" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
       </c>
       <c r="D152" t="n">
-        <v>407101.406543341</v>
+        <v>407101.40654334065</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.00547945205479452</v>
+        <v>0.005479452054794521</v>
       </c>
       <c r="B153" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
       </c>
       <c r="D153" t="n">
-        <v>407101.127706857</v>
+        <v>407101.1277068565</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.00616438356164384</v>
+        <v>0.0061643835616438354</v>
       </c>
       <c r="B154" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
       </c>
       <c r="D154" t="n">
-        <v>407100.848870563</v>
+        <v>407100.8488705632</v>
       </c>
     </row>
     <row r="155">
@@ -2525,27 +2244,27 @@
         <v>0.00684931506849315</v>
       </c>
       <c r="B155" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
       </c>
       <c r="D155" t="n">
-        <v>407100.570034461</v>
+        <v>407100.57003446086</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.00753424657534247</v>
+        <v>0.007534246575342466</v>
       </c>
       <c r="B156" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
       </c>
       <c r="D156" t="n">
-        <v>407100.29119855</v>
+        <v>407100.2911985495</v>
       </c>
     </row>
     <row r="157">
@@ -2553,153 +2272,153 @@
         <v>0.00821917808219178</v>
       </c>
       <c r="B157" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
       </c>
       <c r="D157" t="n">
-        <v>407100.012362829</v>
+        <v>407100.0123628291</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B158" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C158" t="s">
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>10000</v>
+        <v>10000.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.000684931506849315</v>
+        <v>6.849315068493151E-4</v>
       </c>
       <c r="B159" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C159" t="s">
         <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>68026.417120002</v>
+        <v>68026.41712000199</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.00136986301369863</v>
+        <v>0.0013698630136986301</v>
       </c>
       <c r="B160" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C160" t="s">
         <v>6</v>
       </c>
       <c r="D160" t="n">
-        <v>395150.72539197</v>
+        <v>395150.72539196955</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.00205479452054795</v>
+        <v>0.0020547945205479454</v>
       </c>
       <c r="B161" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C161" t="s">
         <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>1234880.38683349</v>
+        <v>1234880.386833486</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.00273972602739726</v>
+        <v>0.0027397260273972603</v>
       </c>
       <c r="B162" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C162" t="s">
         <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>1671583.96166369</v>
+        <v>1671583.9616636897</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.00342465753424658</v>
+        <v>0.003424657534246575</v>
       </c>
       <c r="B163" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C163" t="s">
         <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>1476313.82386138</v>
+        <v>1476313.8238613761</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.00410958904109589</v>
+        <v>0.004109589041095891</v>
       </c>
       <c r="B164" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C164" t="s">
         <v>6</v>
       </c>
       <c r="D164" t="n">
-        <v>705595.75731307</v>
+        <v>705595.7573130705</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.00479452054794521</v>
+        <v>0.004794520547945206</v>
       </c>
       <c r="B165" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C165" t="s">
         <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>117913.571092585</v>
+        <v>117913.57109258499</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.00547945205479452</v>
+        <v>0.005479452054794521</v>
       </c>
       <c r="B166" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C166" t="s">
         <v>6</v>
       </c>
       <c r="D166" t="n">
-        <v>27651.9884816086</v>
+        <v>27651.988481608616</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.00616438356164384</v>
+        <v>0.0061643835616438354</v>
       </c>
       <c r="B167" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C167" t="s">
         <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>7050.03357599209</v>
+        <v>7050.033575992094</v>
       </c>
     </row>
     <row r="168">
@@ -2707,27 +2426,27 @@
         <v>0.00684931506849315</v>
       </c>
       <c r="B168" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C168" t="s">
         <v>6</v>
       </c>
       <c r="D168" t="n">
-        <v>1834.53025715819</v>
+        <v>1834.5302571581933</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.00753424657534247</v>
+        <v>0.007534246575342466</v>
       </c>
       <c r="B169" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C169" t="s">
         <v>6</v>
       </c>
       <c r="D169" t="n">
-        <v>479.89082798917</v>
+        <v>479.8908279891696</v>
       </c>
     </row>
     <row r="170">
@@ -2735,153 +2454,153 @@
         <v>0.00821917808219178</v>
       </c>
       <c r="B170" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="C170" t="s">
         <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>125.706163881816</v>
+        <v>125.70616388181644</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B171" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C171" t="s">
         <v>6</v>
       </c>
       <c r="D171" t="n">
-        <v>10000</v>
+        <v>10000.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.000684931506849315</v>
+        <v>6.849315068493151E-4</v>
       </c>
       <c r="B172" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C172" t="s">
         <v>6</v>
       </c>
       <c r="D172" t="n">
-        <v>101311.741818637</v>
+        <v>101311.74181863671</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.00136986301369863</v>
+        <v>0.0013698630136986301</v>
       </c>
       <c r="B173" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C173" t="s">
         <v>6</v>
       </c>
       <c r="D173" t="n">
-        <v>719693.200375325</v>
+        <v>719693.2003753253</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.00205479452054795</v>
+        <v>0.0020547945205479454</v>
       </c>
       <c r="B174" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C174" t="s">
         <v>6</v>
       </c>
       <c r="D174" t="n">
-        <v>1554466.23566134</v>
+        <v>1554466.235661341</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.00273972602739726</v>
+        <v>0.0027397260273972603</v>
       </c>
       <c r="B175" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C175" t="s">
         <v>6</v>
       </c>
       <c r="D175" t="n">
-        <v>968837.998053175</v>
+        <v>968837.9980531752</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.00342465753424658</v>
+        <v>0.003424657534246575</v>
       </c>
       <c r="B176" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C176" t="s">
         <v>6</v>
       </c>
       <c r="D176" t="n">
-        <v>66483.3266778901</v>
+        <v>66483.32667789007</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.00410958904109589</v>
+        <v>0.004109589041095891</v>
       </c>
       <c r="B177" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C177" t="s">
         <v>6</v>
       </c>
       <c r="D177" t="n">
-        <v>5452.76044908695</v>
+        <v>5452.760449086949</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.00479452054794521</v>
+        <v>0.004794520547945206</v>
       </c>
       <c r="B178" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C178" t="s">
         <v>6</v>
       </c>
       <c r="D178" t="n">
-        <v>466.125595748341</v>
+        <v>466.1255957483412</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.00547945205479452</v>
+        <v>0.005479452054794521</v>
       </c>
       <c r="B179" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C179" t="s">
         <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>39.9852073058377</v>
+        <v>39.98520730583766</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.00616438356164384</v>
+        <v>0.0061643835616438354</v>
       </c>
       <c r="B180" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C180" t="s">
         <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>3.4310448059627</v>
+        <v>3.4310448059626957</v>
       </c>
     </row>
     <row r="181">
@@ -2889,27 +2608,27 @@
         <v>0.00684931506849315</v>
       </c>
       <c r="B181" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C181" t="s">
         <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>0.294419082374087</v>
+        <v>0.29441908237408726</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.00753424657534247</v>
+        <v>0.007534246575342466</v>
       </c>
       <c r="B182" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C182" t="s">
         <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>0.0252642501091612</v>
+        <v>0.02526425010916117</v>
       </c>
     </row>
     <row r="183">
@@ -2917,63 +2636,63 @@
         <v>0.00821917808219178</v>
       </c>
       <c r="B183" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="C183" t="s">
         <v>6</v>
       </c>
       <c r="D183" t="n">
-        <v>0.00216800110431155</v>
+        <v>0.0021680011043115474</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B184" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C184" t="s">
         <v>6</v>
       </c>
       <c r="D184" t="n">
-        <v>10000</v>
+        <v>10000.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.000684931506849315</v>
+        <v>6.849315068493151E-4</v>
       </c>
       <c r="B185" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C185" t="s">
         <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>151021.536446214</v>
+        <v>151021.53644621372</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.00136986301369863</v>
+        <v>0.0013698630136986301</v>
       </c>
       <c r="B186" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C186" t="s">
         <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>1107933.54120288</v>
+        <v>1107933.541202877</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.00205479452054795</v>
+        <v>0.0020547945205479454</v>
       </c>
       <c r="B187" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C187" t="s">
         <v>6</v>
@@ -2984,86 +2703,86 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.00273972602739726</v>
+        <v>0.0027397260273972603</v>
       </c>
       <c r="B188" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C188" t="s">
         <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>6814.97395584882</v>
+        <v>6814.973955848817</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.00342465753424658</v>
+        <v>0.003424657534246575</v>
       </c>
       <c r="B189" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C189" t="s">
         <v>6</v>
       </c>
       <c r="D189" t="n">
-        <v>97.5069311435234</v>
+        <v>97.50693114352342</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.00410958904109589</v>
+        <v>0.004109589041095891</v>
       </c>
       <c r="B190" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C190" t="s">
         <v>6</v>
       </c>
       <c r="D190" t="n">
-        <v>1.39942413666869</v>
+        <v>1.399424136668692</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.00479452054794521</v>
+        <v>0.004794520547945206</v>
       </c>
       <c r="B191" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C191" t="s">
         <v>6</v>
       </c>
       <c r="D191" t="n">
-        <v>0.0200855029583548</v>
+        <v>0.020085502958354783</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.00547945205479452</v>
+        <v>0.005479452054794521</v>
       </c>
       <c r="B192" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C192" t="s">
         <v>6</v>
       </c>
       <c r="D192" t="n">
-        <v>0.000288269063254594</v>
+        <v>2.8826906325459445E-4</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.00616438356164384</v>
+        <v>0.0061643835616438354</v>
       </c>
       <c r="B193" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C193" t="s">
         <v>6</v>
       </c>
       <c r="D193" t="n">
-        <v>0.0000040813715662463</v>
+        <v>4.0813715662463045E-6</v>
       </c>
     </row>
     <row r="194">
@@ -3071,27 +2790,27 @@
         <v>0.00684931506849315</v>
       </c>
       <c r="B194" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C194" t="s">
         <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>0.0000000647803421809617</v>
+        <v>6.478034218096174E-8</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.00753424657534247</v>
+        <v>0.007534246575342466</v>
       </c>
       <c r="B195" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C195" t="s">
         <v>6</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.0000000228412558370744</v>
+        <v>-2.284125583707442E-8</v>
       </c>
     </row>
     <row r="196">
@@ -3099,153 +2818,153 @@
         <v>0.00821917808219178</v>
       </c>
       <c r="B196" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="C196" t="s">
         <v>6</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.00000000856727532320199</v>
+        <v>-8.567275323201994E-9</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B197" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C197" t="s">
         <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>10000</v>
+        <v>10000.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.000684931506849315</v>
+        <v>6.849315068493151E-4</v>
       </c>
       <c r="B198" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C198" t="s">
         <v>6</v>
       </c>
       <c r="D198" t="n">
-        <v>220402.141258706</v>
+        <v>220402.14125870587</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.00136986301369863</v>
+        <v>0.0013698630136986301</v>
       </c>
       <c r="B199" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C199" t="s">
         <v>6</v>
       </c>
       <c r="D199" t="n">
-        <v>1106262.37721113</v>
+        <v>1106262.3772111256</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.00205479452054795</v>
+        <v>0.0020547945205479454</v>
       </c>
       <c r="B200" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C200" t="s">
         <v>6</v>
       </c>
       <c r="D200" t="n">
-        <v>2094.29152600949</v>
+        <v>2094.2915260094906</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.00273972602739726</v>
+        <v>0.0027397260273972603</v>
       </c>
       <c r="B201" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C201" t="s">
         <v>6</v>
       </c>
       <c r="D201" t="n">
-        <v>2.37877453533914</v>
+        <v>2.378774535339138</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.00342465753424658</v>
+        <v>0.003424657534246575</v>
       </c>
       <c r="B202" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C202" t="s">
         <v>6</v>
       </c>
       <c r="D202" t="n">
-        <v>0.00270373576816873</v>
+        <v>0.0027037357681687336</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.00410958904109589</v>
+        <v>0.004109589041095891</v>
       </c>
       <c r="B203" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C203" t="s">
         <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>0.00000301763602696533</v>
+        <v>3.0176360269653335E-6</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.00479452054794521</v>
+        <v>0.004794520547945206</v>
       </c>
       <c r="B204" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C204" t="s">
         <v>6</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.0000000315951896917265</v>
+        <v>-3.159518969172653E-8</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.00547945205479452</v>
+        <v>0.005479452054794521</v>
       </c>
       <c r="B205" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C205" t="s">
         <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.00000000375405465392572</v>
+        <v>-3.754054653925725E-9</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.00616438356164384</v>
+        <v>0.0061643835616438354</v>
       </c>
       <c r="B206" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C206" t="s">
         <v>6</v>
       </c>
       <c r="D206" t="n">
-        <v>0.000000000564166266920935</v>
+        <v>5.641662669209352E-10</v>
       </c>
     </row>
     <row r="207">
@@ -3253,27 +2972,27 @@
         <v>0.00684931506849315</v>
       </c>
       <c r="B207" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C207" t="s">
         <v>6</v>
       </c>
       <c r="D207" t="n">
-        <v>0.00000000036297047328742</v>
+        <v>3.629704732874199E-10</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.00753424657534247</v>
+        <v>0.007534246575342466</v>
       </c>
       <c r="B208" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C208" t="s">
         <v>6</v>
       </c>
       <c r="D208" t="n">
-        <v>0.0000000000536007740809702</v>
+        <v>5.360077408097024E-11</v>
       </c>
     </row>
     <row r="209">
@@ -3281,153 +3000,153 @@
         <v>0.00821917808219178</v>
       </c>
       <c r="B209" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C209" t="s">
         <v>6</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.00000000000897271714484875</v>
+        <v>-8.972717144848751E-12</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B210" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C210" t="s">
         <v>6</v>
       </c>
       <c r="D210" t="n">
-        <v>10000</v>
+        <v>10000.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.000684931506849315</v>
+        <v>6.849315068493151E-4</v>
       </c>
       <c r="B211" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C211" t="s">
         <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>306553.55055774</v>
+        <v>306553.5505577405</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.00136986301369863</v>
+        <v>0.0013698630136986301</v>
       </c>
       <c r="B212" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C212" t="s">
         <v>6</v>
       </c>
       <c r="D212" t="n">
-        <v>46377.1760376232</v>
+        <v>46377.17603762323</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.00205479452054795</v>
+        <v>0.0020547945205479454</v>
       </c>
       <c r="B213" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C213" t="s">
         <v>6</v>
       </c>
       <c r="D213" t="n">
-        <v>4.49299661549283</v>
+        <v>4.492996615492825</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.00273972602739726</v>
+        <v>0.0027397260273972603</v>
       </c>
       <c r="B214" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C214" t="s">
         <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>0.000440276078282724</v>
+        <v>4.4027607828272413E-4</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.00342465753424658</v>
+        <v>0.003424657534246575</v>
       </c>
       <c r="B215" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C215" t="s">
         <v>6</v>
       </c>
       <c r="D215" t="n">
-        <v>0.0000000478381048391836</v>
+        <v>4.7838104839183574E-8</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.00410958904109589</v>
+        <v>0.004109589041095891</v>
       </c>
       <c r="B216" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C216" t="s">
         <v>6</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.00000000526195134626465</v>
+        <v>-5.261951346264654E-9</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.00479452054794521</v>
+        <v>0.004794520547945206</v>
       </c>
       <c r="B217" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C217" t="s">
         <v>6</v>
       </c>
       <c r="D217" t="n">
-        <v>0.00000000118936122960593</v>
+        <v>1.1893612296059258E-9</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.00547945205479452</v>
+        <v>0.005479452054794521</v>
       </c>
       <c r="B218" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C218" t="s">
         <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>0.000000000466847855883056</v>
+        <v>4.668478558830564E-10</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0.00616438356164384</v>
+        <v>0.0061643835616438354</v>
       </c>
       <c r="B219" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C219" t="s">
         <v>6</v>
       </c>
       <c r="D219" t="n">
-        <v>0.0000000000315847356145195</v>
+        <v>3.158473561451955E-11</v>
       </c>
     </row>
     <row r="220">
@@ -3435,27 +3154,27 @@
         <v>0.00684931506849315</v>
       </c>
       <c r="B220" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C220" t="s">
         <v>6</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.0000000000158669819588384</v>
+        <v>-1.5866981958838422E-11</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.00753424657534247</v>
+        <v>0.007534246575342466</v>
       </c>
       <c r="B221" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C221" t="s">
         <v>6</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.00000000000442823279134668</v>
+        <v>-4.428232791346681E-12</v>
       </c>
     </row>
     <row r="222">
@@ -3463,153 +3182,153 @@
         <v>0.00821917808219178</v>
       </c>
       <c r="B222" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="C222" t="s">
         <v>6</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.0000000000000830781592917126</v>
+        <v>-8.307815929171263E-14</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B223" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C223" t="s">
         <v>6</v>
       </c>
       <c r="D223" t="n">
-        <v>10000</v>
+        <v>10000.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.000684931506849315</v>
+        <v>6.849315068493151E-4</v>
       </c>
       <c r="B224" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C224" t="s">
         <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>394573.220130607</v>
+        <v>394573.2201306071</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.00136986301369863</v>
+        <v>0.0013698630136986301</v>
       </c>
       <c r="B225" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C225" t="s">
         <v>6</v>
       </c>
       <c r="D225" t="n">
-        <v>12232.7084409276</v>
+        <v>12232.708440927643</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.00205479452054795</v>
+        <v>0.0020547945205479454</v>
       </c>
       <c r="B226" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C226" t="s">
         <v>6</v>
       </c>
       <c r="D226" t="n">
-        <v>0.544983535216292</v>
+        <v>0.5449835352162918</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.00273972602739726</v>
+        <v>0.0027397260273972603</v>
       </c>
       <c r="B227" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C227" t="s">
         <v>6</v>
       </c>
       <c r="D227" t="n">
-        <v>0.0000243695279105654</v>
+        <v>2.4369527910565397E-5</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.00342465753424658</v>
+        <v>0.003424657534246575</v>
       </c>
       <c r="B228" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C228" t="s">
         <v>6</v>
       </c>
       <c r="D228" t="n">
-        <v>-0.0000000255399416595435</v>
+        <v>-2.553994165954352E-8</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.00410958904109589</v>
+        <v>0.004109589041095891</v>
       </c>
       <c r="B229" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C229" t="s">
         <v>6</v>
       </c>
       <c r="D229" t="n">
-        <v>0.000000000791917190265438</v>
+        <v>7.919171902654381E-10</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.00479452054794521</v>
+        <v>0.004794520547945206</v>
       </c>
       <c r="B230" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C230" t="s">
         <v>6</v>
       </c>
       <c r="D230" t="n">
-        <v>0.00000000101964132881983</v>
+        <v>1.0196413288198336E-9</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.00547945205479452</v>
+        <v>0.005479452054794521</v>
       </c>
       <c r="B231" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C231" t="s">
         <v>6</v>
       </c>
       <c r="D231" t="n">
-        <v>0.000000000142685578182305</v>
+        <v>1.426855781823047E-10</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.00616438356164384</v>
+        <v>0.0061643835616438354</v>
       </c>
       <c r="B232" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C232" t="s">
         <v>6</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.0000000000194950243755813</v>
+        <v>-1.9495024375581277E-11</v>
       </c>
     </row>
     <row r="233">
@@ -3617,27 +3336,27 @@
         <v>0.00684931506849315</v>
       </c>
       <c r="B233" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C233" t="s">
         <v>6</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.00000000000957992163573182</v>
+        <v>-9.579921635731815E-12</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.00753424657534247</v>
+        <v>0.007534246575342466</v>
       </c>
       <c r="B234" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C234" t="s">
         <v>6</v>
       </c>
       <c r="D234" t="n">
-        <v>0.00000000000103190301504443</v>
+        <v>1.031903015044432E-12</v>
       </c>
     </row>
     <row r="235">
@@ -3645,17 +3364,16 @@
         <v>0.00821917808219178</v>
       </c>
       <c r="B235" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="C235" t="s">
         <v>6</v>
       </c>
       <c r="D235" t="n">
-        <v>0.000000000000513381051590509</v>
+        <v>5.133810515905086E-13</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>